--- a/PythonCBS/convergence test/SA Results.xlsx
+++ b/PythonCBS/convergence test/SA Results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\UT AUSTIN\Sha Lab\Research\Placement\Placement\PythonCBS\convergence test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhw542\Documents\Coding\Placement\PythonCBS\convergence test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86973ABB-4917-4C0A-846A-6357DCA99611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711620CA-ACC1-4D2A-B6B7-D6C51423FDC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9176,16 +9176,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>186017</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>71717</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9214,16 +9214,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>332254</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>138953</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>31937</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>24653</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9253,13 +9253,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
+      <xdr:colOff>270061</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
+      <xdr:colOff>146236</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -9556,8 +9556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12291,7 +12291,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F136">
+  <sortState ref="A2:F136">
     <sortCondition ref="B2:B136"/>
     <sortCondition ref="A2:A136"/>
     <sortCondition ref="C2:C136"/>
